--- a/语法整理.xlsx
+++ b/语法整理.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A168C8B-4AF8-43C7-934C-C8ECD44FAAB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF1B7A8-AECB-44AD-8FD8-2DE6E820BB4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4752" yWindow="2772" windowWidth="17076" windowHeight="7296" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="检索" sheetId="1" r:id="rId1"/>
     <sheet name="名词基本句型" sheetId="2" r:id="rId2"/>
     <sheet name="数词" sheetId="3" r:id="rId3"/>
+    <sheet name="动词变形" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="294">
   <si>
     <t>敬体形、现在时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,6 +620,601 @@
   </si>
   <si>
     <t>にじゅうよっか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 动词的划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词的划分有两种方式:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) I类动词、II类动词、III类动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 五段动词、一段动词、カ变动词 和 サ变动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注: I类动词=五段动词、II类动词=一段动词、III类动词=カ变动词+サ变动词</t>
+  </si>
+  <si>
+    <t>I类动词, 词尾是 う、く、ぐ、す、つ、ぬ、ぶ、む、る, 且倒数第二个假名一般是 あ、う、お 段假名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II类动词, 词尾必须是 る, 且倒数第二个假名要在 い段 或者 え段 上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 I类动词(五段动词)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 II类动词(一段动词)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 カ变动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来る(くる)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4 サ变动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 动词的活用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本语教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞書形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ば形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国語教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終止形/連体形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮定形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読ま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読も</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読むこと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読まない、読まず、読まれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読みます、読みたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読んでいる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読めば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読もう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I类动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II类动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カ变动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サ变动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结尾う段假名变成い段假名+ます</t>
+  </si>
+  <si>
+    <r>
+      <t>行く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→行きます</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① く→いて  ぐ→いで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書く→書いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>② う、つ、る结尾: 去掉う、つ、る+って</t>
+  </si>
+  <si>
+    <t>買う→買って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③ ぬ、ぶ、む结尾: 去掉ぬ、ぶ、む+んで</t>
+  </si>
+  <si>
+    <t>飲む→飲んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④ す结尾: 去掉す+して</t>
+  </si>
+  <si>
+    <t>話す→話して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 将结尾う段假名变成あ段假名+ない</t>
+  </si>
+  <si>
+    <t>行く→行かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買う→買わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① く→いた  ぐ→いだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書く→書いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>② う、つ、る结尾: 去掉う、つ、る+った</t>
+  </si>
+  <si>
+    <t>買う→買った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③ ぬ、ぶ、む结尾: 去掉ぬ、ぶ、む+んだ</t>
+  </si>
+  <si>
+    <t>飲む→飲んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④ す结尾: 去掉す+した</t>
+  </si>
+  <si>
+    <t>話す→話した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结尾う段假名变成え段假名+る</t>
+  </si>
+  <si>
+    <t>行く→行ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>できる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结尾う段假名变成お段假名+う</t>
+  </si>
+  <si>
+    <t>行く→行こう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉る+よう</t>
+  </si>
+  <si>
+    <t>去掉る+ます</t>
+  </si>
+  <si>
+    <t>去掉る+て</t>
+  </si>
+  <si>
+    <t>去掉る+ない</t>
+  </si>
+  <si>
+    <t>② 将结尾う变成わ+ない</t>
+  </si>
+  <si>
+    <t>去掉る+た</t>
+  </si>
+  <si>
+    <t>去掉る+られる</t>
+  </si>
+  <si>
+    <t>食べる→食べよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来よう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结尾う段假名变成え段假名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く→行け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉る+ろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞书形+な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く→行くな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べるな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来るな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くるな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>するな</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结尾う段假名变成え段假名+ば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く→行けば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉る+れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结尾う段假名变成あ段假名+れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉る+られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏む→踏まれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褒める→褒められる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结尾う段假名变成あ段假名+せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く→行かせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉る+させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役被动形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结尾う段假名变成あ段假名+される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く→行かされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉る+させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる→食べさせられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こさせられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注: 有些动词满足II类动词的规则, 但却是I类动词: 焦る、要る、帰る、返る、限る、切る、蹴る、茂る、知る、喋る、滑る、散る、入る、走る、減る 等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +1222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +1258,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1176,7 +1780,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1647,4 +2251,645 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E47C91D-3F4D-4FA7-94DD-082D964718CA}">
+  <dimension ref="B2:AN67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>172</v>
+      </c>
+      <c r="S19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>173</v>
+      </c>
+      <c r="S20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>174</v>
+      </c>
+      <c r="S21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" t="s">
+        <v>175</v>
+      </c>
+      <c r="S22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="O23" t="s">
+        <v>176</v>
+      </c>
+      <c r="S23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="O24" t="s">
+        <v>177</v>
+      </c>
+      <c r="S24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" t="s">
+        <v>178</v>
+      </c>
+      <c r="S25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O26" t="s">
+        <v>178</v>
+      </c>
+      <c r="S26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>170</v>
+      </c>
+      <c r="O27" t="s">
+        <v>179</v>
+      </c>
+      <c r="S27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" t="s">
+        <v>189</v>
+      </c>
+      <c r="X29" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" t="s">
+        <v>193</v>
+      </c>
+      <c r="X30" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>194</v>
+      </c>
+      <c r="X31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" t="s">
+        <v>199</v>
+      </c>
+      <c r="X32" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>200</v>
+      </c>
+      <c r="X33" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" t="s">
+        <v>211</v>
+      </c>
+      <c r="X40" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>212</v>
+      </c>
+      <c r="X41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" t="s">
+        <v>218</v>
+      </c>
+      <c r="X44" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>219</v>
+      </c>
+      <c r="X45" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>230</v>
+      </c>
+      <c r="I52" t="s">
+        <v>231</v>
+      </c>
+      <c r="X52" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>232</v>
+      </c>
+      <c r="X53" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" t="s">
+        <v>237</v>
+      </c>
+      <c r="X54" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>238</v>
+      </c>
+      <c r="X55" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="I56" t="s">
+        <v>250</v>
+      </c>
+      <c r="X56" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>251</v>
+      </c>
+      <c r="X57" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" t="s">
+        <v>258</v>
+      </c>
+      <c r="X58" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>259</v>
+      </c>
+      <c r="X59" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>264</v>
+      </c>
+      <c r="I60" t="s">
+        <v>265</v>
+      </c>
+      <c r="X60" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>266</v>
+      </c>
+      <c r="X61" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>272</v>
+      </c>
+      <c r="I62" t="s">
+        <v>273</v>
+      </c>
+      <c r="X62" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>275</v>
+      </c>
+      <c r="X63" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>278</v>
+      </c>
+      <c r="I64" t="s">
+        <v>279</v>
+      </c>
+      <c r="X64" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>280</v>
+      </c>
+      <c r="X65" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>285</v>
+      </c>
+      <c r="I66" t="s">
+        <v>286</v>
+      </c>
+      <c r="X66" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>287</v>
+      </c>
+      <c r="X67" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>